--- a/data/pca/factorExposure/factorExposure_2019-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1225475994358887</v>
+        <v>0.07630283012362651</v>
       </c>
       <c r="C2">
-        <v>-0.002506306241817161</v>
+        <v>-0.03522490472421972</v>
       </c>
       <c r="D2">
-        <v>-0.05086227974643434</v>
+        <v>-0.01217118280215426</v>
       </c>
       <c r="E2">
-        <v>0.1137809615603929</v>
+        <v>-0.04061520458186409</v>
       </c>
       <c r="F2">
-        <v>0.1185902886610159</v>
+        <v>-0.141104809472873</v>
       </c>
       <c r="G2">
-        <v>0.01883548793552655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1046401392247307</v>
+      </c>
+      <c r="H2">
+        <v>0.06094063710676238</v>
+      </c>
+      <c r="I2">
+        <v>-0.0303092743234365</v>
+      </c>
+      <c r="J2">
+        <v>-0.06793991127265643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2270043928870395</v>
+        <v>0.1689326395910738</v>
       </c>
       <c r="C3">
-        <v>-0.1225548934139436</v>
+        <v>-0.09202331451029103</v>
       </c>
       <c r="D3">
-        <v>0.04175149997143691</v>
+        <v>0.03640544292508216</v>
       </c>
       <c r="E3">
-        <v>0.3283950499687758</v>
+        <v>0.008302880494944426</v>
       </c>
       <c r="F3">
-        <v>0.04319900504111649</v>
+        <v>-0.3721317869753256</v>
       </c>
       <c r="G3">
-        <v>0.1225760238937976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09256658036397389</v>
+      </c>
+      <c r="H3">
+        <v>0.2847252435817949</v>
+      </c>
+      <c r="I3">
+        <v>-0.1848864357718103</v>
+      </c>
+      <c r="J3">
+        <v>-0.236279475365521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09554977117181297</v>
+        <v>0.07438802137779642</v>
       </c>
       <c r="C4">
-        <v>-0.03790153436725351</v>
+        <v>-0.03510489181757628</v>
       </c>
       <c r="D4">
-        <v>-0.02623548885646978</v>
+        <v>0.02704792385527149</v>
       </c>
       <c r="E4">
-        <v>0.06896105600500219</v>
+        <v>-0.0374848471843028</v>
       </c>
       <c r="F4">
-        <v>0.04109063384987704</v>
+        <v>-0.08158405161306022</v>
       </c>
       <c r="G4">
-        <v>0.02548350390658088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04653876864152207</v>
+      </c>
+      <c r="H4">
+        <v>0.02386611558924056</v>
+      </c>
+      <c r="I4">
+        <v>-0.0324811001831682</v>
+      </c>
+      <c r="J4">
+        <v>-0.05782572992134827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01728260511764011</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.00867993555749668</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009773391391157295</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00589022868261221</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003878656759723998</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02107649112094691</v>
+      </c>
+      <c r="H6">
+        <v>-0.001416952495073865</v>
+      </c>
+      <c r="I6">
+        <v>0.01340407643625252</v>
+      </c>
+      <c r="J6">
+        <v>-0.001461552003713569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04455267282293209</v>
+        <v>0.03507689768677529</v>
       </c>
       <c r="C7">
-        <v>-0.01182524498361683</v>
+        <v>-0.003509572225519093</v>
       </c>
       <c r="D7">
-        <v>-0.03665067019700922</v>
+        <v>0.03971848768031027</v>
       </c>
       <c r="E7">
-        <v>0.07467211646720619</v>
+        <v>-0.02950722034015316</v>
       </c>
       <c r="F7">
-        <v>-0.05205985724307832</v>
+        <v>-0.05508176902197461</v>
       </c>
       <c r="G7">
-        <v>-0.007428085236331988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007427449479515675</v>
+      </c>
+      <c r="H7">
+        <v>0.04546383901344072</v>
+      </c>
+      <c r="I7">
+        <v>-0.001097844046818238</v>
+      </c>
+      <c r="J7">
+        <v>-0.0563182287932241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04584347510328739</v>
+        <v>0.03049674381721935</v>
       </c>
       <c r="C8">
-        <v>-0.05046987354147592</v>
+        <v>-0.04129087768652823</v>
       </c>
       <c r="D8">
-        <v>-0.005231330307757787</v>
+        <v>0.0296908521397363</v>
       </c>
       <c r="E8">
-        <v>0.06959892640361741</v>
+        <v>-0.01832390606807633</v>
       </c>
       <c r="F8">
-        <v>0.01147759378469601</v>
+        <v>-0.07235371223591845</v>
       </c>
       <c r="G8">
-        <v>0.01505368679945478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02137795015331942</v>
+      </c>
+      <c r="H8">
+        <v>0.04514191230318101</v>
+      </c>
+      <c r="I8">
+        <v>-0.03541024601494176</v>
+      </c>
+      <c r="J8">
+        <v>-0.06112647601587486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0851426561355022</v>
+        <v>0.0613336353990027</v>
       </c>
       <c r="C9">
-        <v>-0.03648841143584118</v>
+        <v>-0.03138543690025939</v>
       </c>
       <c r="D9">
-        <v>-0.03470301647579846</v>
+        <v>0.03105291828156045</v>
       </c>
       <c r="E9">
-        <v>0.05614190811027275</v>
+        <v>-0.03322044536758353</v>
       </c>
       <c r="F9">
-        <v>0.02740602748896149</v>
+        <v>-0.08244163959787608</v>
       </c>
       <c r="G9">
-        <v>0.04376893482404466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04291105948954988</v>
+      </c>
+      <c r="H9">
+        <v>0.02149330895176692</v>
+      </c>
+      <c r="I9">
+        <v>-0.01445321455983152</v>
+      </c>
+      <c r="J9">
+        <v>-0.03613631618030637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008356303563167822</v>
+        <v>0.02611880787706267</v>
       </c>
       <c r="C10">
-        <v>0.1617532522744101</v>
+        <v>0.1411134723452419</v>
       </c>
       <c r="D10">
-        <v>0.02689072439878783</v>
+        <v>-0.06583430754769548</v>
       </c>
       <c r="E10">
-        <v>0.06985898014149845</v>
+        <v>0.02804769662525623</v>
       </c>
       <c r="F10">
-        <v>0.01783986289000529</v>
+        <v>-0.06762506736433078</v>
       </c>
       <c r="G10">
-        <v>-0.02237392281973663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02149953667788507</v>
+      </c>
+      <c r="H10">
+        <v>0.0005013053792978952</v>
+      </c>
+      <c r="I10">
+        <v>-0.1087637116151992</v>
+      </c>
+      <c r="J10">
+        <v>0.006181051025665005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05938057295966998</v>
+        <v>0.05026844589940414</v>
       </c>
       <c r="C11">
-        <v>-0.01138261861718756</v>
+        <v>-0.02765140263919511</v>
       </c>
       <c r="D11">
-        <v>0.005755874427389458</v>
+        <v>0.002578803024240769</v>
       </c>
       <c r="E11">
-        <v>0.0416216957476457</v>
+        <v>-0.008481224055332425</v>
       </c>
       <c r="F11">
-        <v>0.006238277069591141</v>
+        <v>-0.04039691792037756</v>
       </c>
       <c r="G11">
-        <v>-0.02184147105592549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006894282143926285</v>
+      </c>
+      <c r="H11">
+        <v>0.001232416285484305</v>
+      </c>
+      <c r="I11">
+        <v>0.009674265098577755</v>
+      </c>
+      <c r="J11">
+        <v>-0.04518998638577194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04533514041131805</v>
+        <v>0.04741480455799629</v>
       </c>
       <c r="C12">
-        <v>-0.01713805490636992</v>
+        <v>-0.02086988325588198</v>
       </c>
       <c r="D12">
-        <v>0.001961464648119535</v>
+        <v>0.01179265643524351</v>
       </c>
       <c r="E12">
-        <v>0.03060547183652515</v>
+        <v>-0.01133413351749195</v>
       </c>
       <c r="F12">
-        <v>-0.005243015147478936</v>
+        <v>-0.0156823182004641</v>
       </c>
       <c r="G12">
-        <v>0.001913379214704403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002324678298928158</v>
+      </c>
+      <c r="H12">
+        <v>0.003836185472868654</v>
+      </c>
+      <c r="I12">
+        <v>0.00580197804745397</v>
+      </c>
+      <c r="J12">
+        <v>-0.03131804913672388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06559365179066162</v>
+        <v>0.04220664522985572</v>
       </c>
       <c r="C13">
-        <v>-0.02282291770599251</v>
+        <v>-0.02951882941759523</v>
       </c>
       <c r="D13">
-        <v>0.006808100593317061</v>
+        <v>-0.005473660508386085</v>
       </c>
       <c r="E13">
-        <v>0.1084604234656523</v>
+        <v>-0.008502616998690017</v>
       </c>
       <c r="F13">
-        <v>0.02036370716830785</v>
+        <v>-0.1064969479965816</v>
       </c>
       <c r="G13">
-        <v>-0.002377098155948875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02136525315858917</v>
+      </c>
+      <c r="H13">
+        <v>0.04666251453209527</v>
+      </c>
+      <c r="I13">
+        <v>-0.007079996330790921</v>
+      </c>
+      <c r="J13">
+        <v>-0.05702120548063245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03491958824167442</v>
+        <v>0.02790412423122381</v>
       </c>
       <c r="C14">
-        <v>-0.01683224370310243</v>
+        <v>-0.01563609158780191</v>
       </c>
       <c r="D14">
-        <v>-0.02673854616714577</v>
+        <v>0.01122039970881909</v>
       </c>
       <c r="E14">
-        <v>0.02743762729761181</v>
+        <v>-0.02518629681409386</v>
       </c>
       <c r="F14">
-        <v>0.01158275303229182</v>
+        <v>-0.04125534749544887</v>
       </c>
       <c r="G14">
-        <v>-0.03428423174383369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02836365176422858</v>
+      </c>
+      <c r="H14">
+        <v>0.05090467970909379</v>
+      </c>
+      <c r="I14">
+        <v>-0.009141077446601273</v>
+      </c>
+      <c r="J14">
+        <v>-0.01472701840768001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04778473997481725</v>
+        <v>0.0444772004046543</v>
       </c>
       <c r="C16">
-        <v>-0.02700356780103517</v>
+        <v>-0.03295963292702173</v>
       </c>
       <c r="D16">
-        <v>0.009722743567305778</v>
+        <v>0.01125354528653781</v>
       </c>
       <c r="E16">
-        <v>0.03400100787272448</v>
+        <v>-0.00540351024016536</v>
       </c>
       <c r="F16">
-        <v>-0.006651524000692414</v>
+        <v>-0.03405791107616611</v>
       </c>
       <c r="G16">
-        <v>-0.008510513791899384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005455982548129799</v>
+      </c>
+      <c r="H16">
+        <v>0.008435481126269736</v>
+      </c>
+      <c r="I16">
+        <v>0.008073570157540805</v>
+      </c>
+      <c r="J16">
+        <v>-0.03865551894288992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05479505448143739</v>
+        <v>0.04834403143087225</v>
       </c>
       <c r="C19">
-        <v>-0.03476472264913905</v>
+        <v>-0.04011901170931919</v>
       </c>
       <c r="D19">
-        <v>0.004641359737732786</v>
+        <v>0.01367585042572831</v>
       </c>
       <c r="E19">
-        <v>0.07548349072541043</v>
+        <v>-0.01837869292811146</v>
       </c>
       <c r="F19">
-        <v>-0.01663491726616342</v>
+        <v>-0.08012682985249034</v>
       </c>
       <c r="G19">
-        <v>-0.02380166100220189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009470499151517884</v>
+      </c>
+      <c r="H19">
+        <v>0.08205059626329132</v>
+      </c>
+      <c r="I19">
+        <v>-0.03485941585594719</v>
+      </c>
+      <c r="J19">
+        <v>-0.04955904728388262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03800247939465472</v>
+        <v>0.01891142426418843</v>
       </c>
       <c r="C20">
-        <v>-0.04018899745226791</v>
+        <v>-0.02663295204231047</v>
       </c>
       <c r="D20">
-        <v>-0.01371917231534337</v>
+        <v>0.01775769539812988</v>
       </c>
       <c r="E20">
-        <v>0.06515405256390111</v>
+        <v>-0.01910847095931884</v>
       </c>
       <c r="F20">
-        <v>-0.008453635985548364</v>
+        <v>-0.06731139769090048</v>
       </c>
       <c r="G20">
-        <v>-0.01290149165449618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01373692831599346</v>
+      </c>
+      <c r="H20">
+        <v>0.06878648287077975</v>
+      </c>
+      <c r="I20">
+        <v>-0.02114616171857896</v>
+      </c>
+      <c r="J20">
+        <v>-0.07911866153886446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04196169556935249</v>
+        <v>0.02612221882065376</v>
       </c>
       <c r="C21">
-        <v>-0.03346516870797777</v>
+        <v>-0.02611074852764411</v>
       </c>
       <c r="D21">
-        <v>-0.00730253541960614</v>
+        <v>0.02543047097663859</v>
       </c>
       <c r="E21">
-        <v>0.0929081534018486</v>
+        <v>-0.008470256135436173</v>
       </c>
       <c r="F21">
-        <v>0.05287386123701723</v>
+        <v>-0.07815778780849447</v>
       </c>
       <c r="G21">
-        <v>-0.02354403822286372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03494224018966957</v>
+      </c>
+      <c r="H21">
+        <v>0.02369594492803741</v>
+      </c>
+      <c r="I21">
+        <v>0.01240961261757579</v>
+      </c>
+      <c r="J21">
+        <v>-0.02820229754392127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0515712827512039</v>
+        <v>0.04373754796504682</v>
       </c>
       <c r="C24">
-        <v>-0.01900098688711694</v>
+        <v>-0.02138844638908617</v>
       </c>
       <c r="D24">
-        <v>0.001404342751130576</v>
+        <v>0.006468913600436869</v>
       </c>
       <c r="E24">
-        <v>0.0454751169467998</v>
+        <v>-0.01020233818811203</v>
       </c>
       <c r="F24">
-        <v>-0.004790189140519805</v>
+        <v>-0.04126114101605369</v>
       </c>
       <c r="G24">
-        <v>0.0001443987437543039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004543447681173023</v>
+      </c>
+      <c r="H24">
+        <v>0.007980338681809548</v>
+      </c>
+      <c r="I24">
+        <v>0.005409072490914778</v>
+      </c>
+      <c r="J24">
+        <v>-0.04397806505026382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05312952365043126</v>
+        <v>0.04648857654343829</v>
       </c>
       <c r="C25">
-        <v>-0.008247842704846601</v>
+        <v>-0.02090665357878507</v>
       </c>
       <c r="D25">
-        <v>0.002968747956694559</v>
+        <v>0.005040152188171224</v>
       </c>
       <c r="E25">
-        <v>0.04011273021091731</v>
+        <v>-0.008742287320019766</v>
       </c>
       <c r="F25">
-        <v>0.006780359327156466</v>
+        <v>-0.04431086063025839</v>
       </c>
       <c r="G25">
-        <v>-0.008682138975451141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004459361515797665</v>
+      </c>
+      <c r="H25">
+        <v>-0.0005038413165777688</v>
+      </c>
+      <c r="I25">
+        <v>0.01124365127371893</v>
+      </c>
+      <c r="J25">
+        <v>-0.03778403574403603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01787106975340765</v>
+        <v>0.01593834979224575</v>
       </c>
       <c r="C26">
-        <v>-0.02853558773970737</v>
+        <v>-0.02409528290287077</v>
       </c>
       <c r="D26">
-        <v>-0.003455788244642142</v>
+        <v>0.004919537562726574</v>
       </c>
       <c r="E26">
-        <v>0.03592025927026841</v>
+        <v>-0.001142453858180962</v>
       </c>
       <c r="F26">
-        <v>0.02201376416369004</v>
+        <v>-0.04789574133126456</v>
       </c>
       <c r="G26">
-        <v>-0.02527942985240062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02103991849993717</v>
+      </c>
+      <c r="H26">
+        <v>0.03229020824768935</v>
+      </c>
+      <c r="I26">
+        <v>0.00565411328340426</v>
+      </c>
+      <c r="J26">
+        <v>-0.037305733743171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1163996912638781</v>
+        <v>0.07785865091159429</v>
       </c>
       <c r="C27">
-        <v>-0.02881406911927722</v>
+        <v>-0.02629170587036278</v>
       </c>
       <c r="D27">
-        <v>-0.02228407539812557</v>
+        <v>0.01338123283860451</v>
       </c>
       <c r="E27">
-        <v>0.09337902583569839</v>
+        <v>-0.03384133932477015</v>
       </c>
       <c r="F27">
-        <v>0.0131164644606356</v>
+        <v>-0.06853147251271384</v>
       </c>
       <c r="G27">
-        <v>0.005642696239985006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01687409422467544</v>
+      </c>
+      <c r="H27">
+        <v>0.01300044946909978</v>
+      </c>
+      <c r="I27">
+        <v>-0.02504459517342362</v>
+      </c>
+      <c r="J27">
+        <v>-0.04334730939770597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.003852304862091721</v>
+        <v>0.04176239039492961</v>
       </c>
       <c r="C28">
-        <v>0.2448511154271241</v>
+        <v>0.2173235369989047</v>
       </c>
       <c r="D28">
-        <v>0.02690650932767314</v>
+        <v>-0.08979841909471419</v>
       </c>
       <c r="E28">
-        <v>0.04753745735861424</v>
+        <v>0.04524522278816501</v>
       </c>
       <c r="F28">
-        <v>0.0319480781258763</v>
+        <v>-0.05750217834936191</v>
       </c>
       <c r="G28">
-        <v>-0.00968069835948194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02492788378359401</v>
+      </c>
+      <c r="H28">
+        <v>-0.003803203785171082</v>
+      </c>
+      <c r="I28">
+        <v>-0.1563631439685902</v>
+      </c>
+      <c r="J28">
+        <v>0.0006585368998430207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02403089929765653</v>
+        <v>0.02227818912479491</v>
       </c>
       <c r="C29">
-        <v>-0.02295792577927922</v>
+        <v>-0.0154117907153185</v>
       </c>
       <c r="D29">
-        <v>-0.03096817610569475</v>
+        <v>0.01640161464929394</v>
       </c>
       <c r="E29">
-        <v>0.02825593339586503</v>
+        <v>-0.02649871384939236</v>
       </c>
       <c r="F29">
-        <v>0.01584356489455903</v>
+        <v>-0.03557985519531986</v>
       </c>
       <c r="G29">
-        <v>-0.02500306110886875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02927585911977979</v>
+      </c>
+      <c r="H29">
+        <v>0.0488612607366441</v>
+      </c>
+      <c r="I29">
+        <v>-0.00281731460037991</v>
+      </c>
+      <c r="J29">
+        <v>-0.009539370586106185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1111657822689162</v>
+        <v>0.09132325915286803</v>
       </c>
       <c r="C30">
-        <v>-0.01774980833346817</v>
+        <v>-0.05709511771611891</v>
       </c>
       <c r="D30">
-        <v>-0.0263525318458922</v>
+        <v>-0.01963254401680521</v>
       </c>
       <c r="E30">
-        <v>0.1076817229765904</v>
+        <v>-0.03073679444687215</v>
       </c>
       <c r="F30">
-        <v>0.002929525327536786</v>
+        <v>-0.1030596355134862</v>
       </c>
       <c r="G30">
-        <v>-0.03894937495625787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01451625287433293</v>
+      </c>
+      <c r="H30">
+        <v>0.02116258883672087</v>
+      </c>
+      <c r="I30">
+        <v>0.01180347196544901</v>
+      </c>
+      <c r="J30">
+        <v>-0.03264159750659914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06353935703977626</v>
+        <v>0.06317129592364351</v>
       </c>
       <c r="C31">
-        <v>-0.01928658969909251</v>
+        <v>-0.02486221345456976</v>
       </c>
       <c r="D31">
-        <v>-0.01709082004434975</v>
+        <v>-0.003288655330452369</v>
       </c>
       <c r="E31">
-        <v>-0.02029873889823568</v>
+        <v>-0.02264014374374434</v>
       </c>
       <c r="F31">
-        <v>0.009723351757850926</v>
+        <v>-0.002782682549724558</v>
       </c>
       <c r="G31">
-        <v>-0.05967674058060565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04017757828913877</v>
+      </c>
+      <c r="H31">
+        <v>0.03011189916473324</v>
+      </c>
+      <c r="I31">
+        <v>-0.01330157733603363</v>
+      </c>
+      <c r="J31">
+        <v>-0.0154464509495117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06782243105651818</v>
+        <v>0.04434076247364954</v>
       </c>
       <c r="C32">
-        <v>-0.03112266891853928</v>
+        <v>-0.03980997116102108</v>
       </c>
       <c r="D32">
-        <v>-0.009471576556840909</v>
+        <v>0.03087265745464781</v>
       </c>
       <c r="E32">
-        <v>0.106286162288258</v>
+        <v>-0.0281209906385589</v>
       </c>
       <c r="F32">
-        <v>-0.006135159211032623</v>
+        <v>-0.08766602447328259</v>
       </c>
       <c r="G32">
-        <v>-0.02991126242260929</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01287138664904858</v>
+      </c>
+      <c r="H32">
+        <v>0.03967002473256578</v>
+      </c>
+      <c r="I32">
+        <v>-0.02425040643045586</v>
+      </c>
+      <c r="J32">
+        <v>-0.04774173439571545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06834687622746144</v>
+        <v>0.05827843066612039</v>
       </c>
       <c r="C33">
-        <v>-0.04078363996784366</v>
+        <v>-0.05362111098764151</v>
       </c>
       <c r="D33">
-        <v>-0.00926487875433837</v>
+        <v>6.870658795649933e-05</v>
       </c>
       <c r="E33">
-        <v>0.06963733567517172</v>
+        <v>-0.0105157279977776</v>
       </c>
       <c r="F33">
-        <v>0.05146364191085655</v>
+        <v>-0.07825902900760318</v>
       </c>
       <c r="G33">
-        <v>-0.017371219998156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0363124414982745</v>
+      </c>
+      <c r="H33">
+        <v>0.03736040182697383</v>
+      </c>
+      <c r="I33">
+        <v>0.01083973898935266</v>
+      </c>
+      <c r="J33">
+        <v>-0.05251025758421516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04856318914211978</v>
+        <v>0.04561828808996795</v>
       </c>
       <c r="C34">
-        <v>-0.01994427694198254</v>
+        <v>-0.02726549411290116</v>
       </c>
       <c r="D34">
-        <v>-0.001891580762773573</v>
+        <v>0.01413510520623645</v>
       </c>
       <c r="E34">
-        <v>0.02718448387774727</v>
+        <v>-0.01532620722521241</v>
       </c>
       <c r="F34">
-        <v>-0.006272943935580887</v>
+        <v>-0.03157002651680249</v>
       </c>
       <c r="G34">
-        <v>-0.006796191372359136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0001986324625013652</v>
+      </c>
+      <c r="H34">
+        <v>0.01148040723764045</v>
+      </c>
+      <c r="I34">
+        <v>0.006423474400176575</v>
+      </c>
+      <c r="J34">
+        <v>-0.03485970891761453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01382070864277053</v>
+        <v>0.01631325081369009</v>
       </c>
       <c r="C36">
-        <v>0.003455012205388626</v>
+        <v>-9.09973999545011e-05</v>
       </c>
       <c r="D36">
-        <v>-0.007921290796532523</v>
+        <v>0.004699268271372087</v>
       </c>
       <c r="E36">
-        <v>0.02167509106631778</v>
+        <v>-0.009827097312861473</v>
       </c>
       <c r="F36">
-        <v>0.008605500617408772</v>
+        <v>-0.02816460027624527</v>
       </c>
       <c r="G36">
-        <v>-0.02067823770540077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02348454088364997</v>
+      </c>
+      <c r="H36">
+        <v>0.02739581996405883</v>
+      </c>
+      <c r="I36">
+        <v>0.003690713332438179</v>
+      </c>
+      <c r="J36">
+        <v>-0.003693796229606206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0574711083419783</v>
+        <v>0.03617287597045581</v>
       </c>
       <c r="C38">
-        <v>-0.01311938402695132</v>
+        <v>-0.01283652357391622</v>
       </c>
       <c r="D38">
-        <v>-0.0253638830008856</v>
+        <v>0.007363881742850464</v>
       </c>
       <c r="E38">
-        <v>0.02691794755033307</v>
+        <v>-0.01302265808096407</v>
       </c>
       <c r="F38">
-        <v>0.001888668599189714</v>
+        <v>-0.04960868259990326</v>
       </c>
       <c r="G38">
-        <v>0.01996006026118716</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02812774997570263</v>
+      </c>
+      <c r="H38">
+        <v>0.01331008445602526</v>
+      </c>
+      <c r="I38">
+        <v>0.01409041766567235</v>
+      </c>
+      <c r="J38">
+        <v>-0.001901647030035293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07428956373022108</v>
+        <v>0.05768083947682065</v>
       </c>
       <c r="C39">
-        <v>-0.01576487194831789</v>
+        <v>-0.03955374397404173</v>
       </c>
       <c r="D39">
-        <v>-0.003985490031252877</v>
+        <v>0.009120447932241475</v>
       </c>
       <c r="E39">
-        <v>0.03968143658914856</v>
+        <v>-0.01705691331202879</v>
       </c>
       <c r="F39">
-        <v>0.01722363611755341</v>
+        <v>-0.05509565329852124</v>
       </c>
       <c r="G39">
-        <v>-0.009544049897519702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01692450330049662</v>
+      </c>
+      <c r="H39">
+        <v>0.0009364259943479115</v>
+      </c>
+      <c r="I39">
+        <v>0.02874315521293186</v>
+      </c>
+      <c r="J39">
+        <v>-0.04790220192302441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07742735514202112</v>
+        <v>0.0572627845148163</v>
       </c>
       <c r="C40">
-        <v>-0.03894248226245186</v>
+        <v>-0.04548826351533148</v>
       </c>
       <c r="D40">
-        <v>-0.008524334259249491</v>
+        <v>-0.005442056023592558</v>
       </c>
       <c r="E40">
-        <v>0.1025884520821587</v>
+        <v>-0.02343384140823314</v>
       </c>
       <c r="F40">
-        <v>0.03338962690193038</v>
+        <v>-0.09531328208273115</v>
       </c>
       <c r="G40">
-        <v>0.0360110614235311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02259636326171793</v>
+      </c>
+      <c r="H40">
+        <v>0.05339727932173359</v>
+      </c>
+      <c r="I40">
+        <v>-0.01617119756589823</v>
+      </c>
+      <c r="J40">
+        <v>-0.1178352391826278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003826819627774812</v>
+        <v>0.00368049024806009</v>
       </c>
       <c r="C41">
-        <v>-0.01709452918053816</v>
+        <v>-0.01150569024101487</v>
       </c>
       <c r="D41">
-        <v>-0.02506301050193429</v>
+        <v>0.005341962818020968</v>
       </c>
       <c r="E41">
-        <v>0.0115514338789588</v>
+        <v>-0.008396651769661017</v>
       </c>
       <c r="F41">
-        <v>0.03182883483001575</v>
+        <v>-0.01451767310904345</v>
       </c>
       <c r="G41">
-        <v>-0.03000214880322701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03625373180905135</v>
+      </c>
+      <c r="H41">
+        <v>0.0314741950337411</v>
+      </c>
+      <c r="I41">
+        <v>-0.02239731425818194</v>
+      </c>
+      <c r="J41">
+        <v>-0.01149975200957933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1413925932662124</v>
+        <v>0.2195579945837439</v>
       </c>
       <c r="C42">
-        <v>-0.1927669540157868</v>
+        <v>-0.2219184080845966</v>
       </c>
       <c r="D42">
-        <v>0.9344967447237581</v>
+        <v>0.03164196050052114</v>
       </c>
       <c r="E42">
-        <v>-0.08588512574987682</v>
+        <v>0.9226100701949927</v>
       </c>
       <c r="F42">
-        <v>-0.04022577520640811</v>
+        <v>0.1462195719489848</v>
       </c>
       <c r="G42">
-        <v>-0.08807555466244177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004181852082853239</v>
+      </c>
+      <c r="H42">
+        <v>-0.0006558679150054007</v>
+      </c>
+      <c r="I42">
+        <v>-0.04686537976117502</v>
+      </c>
+      <c r="J42">
+        <v>-0.028054179156074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.005087132072374751</v>
+        <v>0.006046036297901303</v>
       </c>
       <c r="C43">
-        <v>-0.01877391928870985</v>
+        <v>-0.01457590466046571</v>
       </c>
       <c r="D43">
-        <v>-0.01621668036506304</v>
+        <v>0.00353020740319754</v>
       </c>
       <c r="E43">
-        <v>0.03580176557212103</v>
+        <v>-0.008703911076338944</v>
       </c>
       <c r="F43">
-        <v>0.01007668509665283</v>
+        <v>-0.02911957994712126</v>
       </c>
       <c r="G43">
-        <v>-0.02254286139402045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02073873937704892</v>
+      </c>
+      <c r="H43">
+        <v>0.03138458546612653</v>
+      </c>
+      <c r="I43">
+        <v>-0.01310505955830931</v>
+      </c>
+      <c r="J43">
+        <v>-0.02008583284833257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04149318155609247</v>
+        <v>0.02925128200528264</v>
       </c>
       <c r="C44">
-        <v>-0.04914477582146159</v>
+        <v>-0.03953024634884234</v>
       </c>
       <c r="D44">
-        <v>-0.01481037775509579</v>
+        <v>0.01767472205615879</v>
       </c>
       <c r="E44">
-        <v>0.1178894291726085</v>
+        <v>-0.01097148682656228</v>
       </c>
       <c r="F44">
-        <v>0.09610332301494461</v>
+        <v>-0.1210325780611934</v>
       </c>
       <c r="G44">
-        <v>-0.03048801855200345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06085097674389828</v>
+      </c>
+      <c r="H44">
+        <v>0.1034811269292838</v>
+      </c>
+      <c r="I44">
+        <v>-0.01999577323348236</v>
+      </c>
+      <c r="J44">
+        <v>-0.0293674090945559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02872455894691183</v>
+        <v>0.02550570608890107</v>
       </c>
       <c r="C46">
-        <v>-0.02283022239711333</v>
+        <v>-0.03405418858303933</v>
       </c>
       <c r="D46">
-        <v>-0.0309943467871095</v>
+        <v>0.01091513418588676</v>
       </c>
       <c r="E46">
-        <v>0.0260469051993443</v>
+        <v>-0.02853679242150263</v>
       </c>
       <c r="F46">
-        <v>0.02610875975332603</v>
+        <v>-0.04776201591665039</v>
       </c>
       <c r="G46">
-        <v>-0.03218915335345505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02610261295829061</v>
+      </c>
+      <c r="H46">
+        <v>0.05073468020252889</v>
+      </c>
+      <c r="I46">
+        <v>-0.001125501246158543</v>
+      </c>
+      <c r="J46">
+        <v>-0.02053678386070838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08844999850307125</v>
+        <v>0.09156413800205419</v>
       </c>
       <c r="C47">
-        <v>-0.01292247310033434</v>
+        <v>-0.01820445695356645</v>
       </c>
       <c r="D47">
-        <v>-0.01661645861184896</v>
+        <v>-0.0007299244120852413</v>
       </c>
       <c r="E47">
-        <v>-0.02337585079691292</v>
+        <v>-0.02537528131292456</v>
       </c>
       <c r="F47">
-        <v>0.008062736583309643</v>
+        <v>0.0106081513295919</v>
       </c>
       <c r="G47">
-        <v>-0.03025744157417432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04141392237525228</v>
+      </c>
+      <c r="H47">
+        <v>0.05370906685194204</v>
+      </c>
+      <c r="I47">
+        <v>-0.02023550872100342</v>
+      </c>
+      <c r="J47">
+        <v>-0.02633225819026373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01907745495007642</v>
+        <v>0.01915822836700076</v>
       </c>
       <c r="C48">
-        <v>-0.02294752016724849</v>
+        <v>-0.01811187611359476</v>
       </c>
       <c r="D48">
-        <v>-0.01527100188294091</v>
+        <v>0.008688873294776038</v>
       </c>
       <c r="E48">
-        <v>0.02701269227442787</v>
+        <v>-0.013584955918918</v>
       </c>
       <c r="F48">
-        <v>0.01147171586869994</v>
+        <v>-0.03070292793430682</v>
       </c>
       <c r="G48">
-        <v>-0.01032867220687409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01517414172061587</v>
+      </c>
+      <c r="H48">
+        <v>0.02078953563141755</v>
+      </c>
+      <c r="I48">
+        <v>-0.01201339952450507</v>
+      </c>
+      <c r="J48">
+        <v>-0.01428809986256815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09187375462856064</v>
+        <v>0.09007147390009183</v>
       </c>
       <c r="C50">
-        <v>-0.04242152267148083</v>
+        <v>-0.03298217918765543</v>
       </c>
       <c r="D50">
-        <v>-0.02700388112082926</v>
+        <v>0.02284436369764256</v>
       </c>
       <c r="E50">
-        <v>-0.01679262154216175</v>
+        <v>-0.02486395183640141</v>
       </c>
       <c r="F50">
-        <v>-0.006168253951936799</v>
+        <v>0.004659412605147312</v>
       </c>
       <c r="G50">
-        <v>-0.0429623074624838</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0001888392676351633</v>
+      </c>
+      <c r="H50">
+        <v>0.03777610377515986</v>
+      </c>
+      <c r="I50">
+        <v>0.00456135224430864</v>
+      </c>
+      <c r="J50">
+        <v>-0.01087952542813014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05751245793336371</v>
+        <v>0.03979599301434185</v>
       </c>
       <c r="C51">
-        <v>0.02375117024135324</v>
+        <v>0.0007962444418925784</v>
       </c>
       <c r="D51">
-        <v>0.006475307815525939</v>
+        <v>-0.01447204289148407</v>
       </c>
       <c r="E51">
-        <v>0.07442924650196629</v>
+        <v>-0.008158631176899085</v>
       </c>
       <c r="F51">
-        <v>0.04987790745768611</v>
+        <v>-0.09937691957568552</v>
       </c>
       <c r="G51">
-        <v>-0.07237393694728254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05060223864891873</v>
+      </c>
+      <c r="H51">
+        <v>0.05021492626360491</v>
+      </c>
+      <c r="I51">
+        <v>-0.01777782884801596</v>
+      </c>
+      <c r="J51">
+        <v>-0.04440063504331603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1433269131361932</v>
+        <v>0.1272615546366385</v>
       </c>
       <c r="C53">
-        <v>-0.01071101450753867</v>
+        <v>-0.0346425674598426</v>
       </c>
       <c r="D53">
-        <v>-0.04701672159916947</v>
+        <v>0.003772943382425762</v>
       </c>
       <c r="E53">
-        <v>-0.05339706560526485</v>
+        <v>-0.05039413333990114</v>
       </c>
       <c r="F53">
-        <v>-0.009017327106832951</v>
+        <v>0.04055930516319307</v>
       </c>
       <c r="G53">
-        <v>-0.04327830795156568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02274223309008166</v>
+      </c>
+      <c r="H53">
+        <v>-0.002178645820112278</v>
+      </c>
+      <c r="I53">
+        <v>-0.03641848482588978</v>
+      </c>
+      <c r="J53">
+        <v>-0.03613981315334472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02690968857310603</v>
+        <v>0.02517760631989707</v>
       </c>
       <c r="C54">
-        <v>-0.00377852141276623</v>
+        <v>-0.001465448072539641</v>
       </c>
       <c r="D54">
-        <v>-0.02545162003017065</v>
+        <v>0.005423722931978528</v>
       </c>
       <c r="E54">
-        <v>0.02990581332085327</v>
+        <v>-0.02625422037296006</v>
       </c>
       <c r="F54">
-        <v>0.05118826676076285</v>
+        <v>-0.0373446090906787</v>
       </c>
       <c r="G54">
-        <v>-0.01853952242754228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05142169083303059</v>
+      </c>
+      <c r="H54">
+        <v>0.04094487798300938</v>
+      </c>
+      <c r="I54">
+        <v>-0.02767381024933551</v>
+      </c>
+      <c r="J54">
+        <v>0.005697859147659567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09906268371017164</v>
+        <v>0.1005932229596461</v>
       </c>
       <c r="C55">
-        <v>0.001002036385560527</v>
+        <v>-0.01664530207025026</v>
       </c>
       <c r="D55">
-        <v>-0.03866162254830101</v>
+        <v>0.01639446144307902</v>
       </c>
       <c r="E55">
-        <v>-0.009070334868074443</v>
+        <v>-0.03218603458206985</v>
       </c>
       <c r="F55">
-        <v>-0.03361083969702342</v>
+        <v>0.02733668808769772</v>
       </c>
       <c r="G55">
-        <v>0.003968483958604833</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005905300158194979</v>
+      </c>
+      <c r="H55">
+        <v>0.01151587484492806</v>
+      </c>
+      <c r="I55">
+        <v>-0.01971494633587434</v>
+      </c>
+      <c r="J55">
+        <v>-0.03024584093913775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1745510830022245</v>
+        <v>0.1681682360802637</v>
       </c>
       <c r="C56">
-        <v>0.01015002423133814</v>
+        <v>-0.01368975194403906</v>
       </c>
       <c r="D56">
-        <v>-0.08882184311284369</v>
+        <v>0.0026321660358492</v>
       </c>
       <c r="E56">
-        <v>-0.09944528499957342</v>
+        <v>-0.08563120091248988</v>
       </c>
       <c r="F56">
-        <v>-0.08532702800619346</v>
+        <v>0.08504386254425378</v>
       </c>
       <c r="G56">
-        <v>-0.01236971322318066</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02763130792815611</v>
+      </c>
+      <c r="H56">
+        <v>-0.04407798396943843</v>
+      </c>
+      <c r="I56">
+        <v>-0.02895327759384581</v>
+      </c>
+      <c r="J56">
+        <v>-0.04295092485251376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09194212490085302</v>
+        <v>0.06788323248642235</v>
       </c>
       <c r="C57">
-        <v>-0.02940039691059587</v>
+        <v>-0.03868050749288358</v>
       </c>
       <c r="D57">
-        <v>-0.03097146119319329</v>
+        <v>-0.004623148471974988</v>
       </c>
       <c r="E57">
-        <v>0.03444096572712075</v>
+        <v>-0.01199681565430552</v>
       </c>
       <c r="F57">
-        <v>0.03254599918496617</v>
+        <v>-0.06276104911800391</v>
       </c>
       <c r="G57">
-        <v>-0.04479904934978633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02628931883088303</v>
+      </c>
+      <c r="H57">
+        <v>0.02772657520525978</v>
+      </c>
+      <c r="I57">
+        <v>0.01125414600546872</v>
+      </c>
+      <c r="J57">
+        <v>-0.03770802156723616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1858899269703963</v>
+        <v>0.2080879682080859</v>
       </c>
       <c r="C58">
-        <v>-0.02692620089301996</v>
+        <v>-0.1208456709013802</v>
       </c>
       <c r="D58">
-        <v>0.0211361928102978</v>
+        <v>-0.04920490949867191</v>
       </c>
       <c r="E58">
-        <v>0.1183918701650019</v>
+        <v>0.005272874076106472</v>
       </c>
       <c r="F58">
-        <v>-0.07135506881839959</v>
+        <v>-0.231424179253867</v>
       </c>
       <c r="G58">
-        <v>-0.01518275244247807</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1674804953238526</v>
+      </c>
+      <c r="H58">
+        <v>0.3631710543449133</v>
+      </c>
+      <c r="I58">
+        <v>0.1592893657935277</v>
+      </c>
+      <c r="J58">
+        <v>0.7619044429191224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01580389869268006</v>
+        <v>0.04119368662848687</v>
       </c>
       <c r="C59">
-        <v>0.1997256141595373</v>
+        <v>0.1747327891430406</v>
       </c>
       <c r="D59">
-        <v>-0.003406737264160028</v>
+        <v>-0.09209083785412286</v>
       </c>
       <c r="E59">
-        <v>0.06279167771448181</v>
+        <v>0.00987940577219505</v>
       </c>
       <c r="F59">
-        <v>0.01781812316413965</v>
+        <v>-0.07255441551828361</v>
       </c>
       <c r="G59">
-        <v>-0.006401791640032314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002710141272264036</v>
+      </c>
+      <c r="H59">
+        <v>-0.02105859138126918</v>
+      </c>
+      <c r="I59">
+        <v>-0.0639549494893563</v>
+      </c>
+      <c r="J59">
+        <v>0.01155583626368432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1914049062855426</v>
+        <v>0.1840752896229454</v>
       </c>
       <c r="C60">
-        <v>0.09597416560060067</v>
+        <v>0.02667827725044613</v>
       </c>
       <c r="D60">
-        <v>-0.006604520161710531</v>
+        <v>-0.0664010531358626</v>
       </c>
       <c r="E60">
-        <v>0.1833239808989155</v>
+        <v>-0.0114489776354382</v>
       </c>
       <c r="F60">
-        <v>0.06073018954561415</v>
+        <v>-0.2101746550948442</v>
       </c>
       <c r="G60">
-        <v>-0.01377899392346115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06775308808991516</v>
+      </c>
+      <c r="H60">
+        <v>-0.2742954466253545</v>
+      </c>
+      <c r="I60">
+        <v>0.1013360263361393</v>
+      </c>
+      <c r="J60">
+        <v>-0.02594463889918255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04642813756416381</v>
+        <v>0.03842308473806042</v>
       </c>
       <c r="C61">
-        <v>-0.007997220872454792</v>
+        <v>-0.02381820491085239</v>
       </c>
       <c r="D61">
-        <v>-0.001264110517113806</v>
+        <v>0.01003723642656573</v>
       </c>
       <c r="E61">
-        <v>0.03598585036265113</v>
+        <v>-0.006081894790598352</v>
       </c>
       <c r="F61">
-        <v>0.007574406066717281</v>
+        <v>-0.0399471149922794</v>
       </c>
       <c r="G61">
-        <v>-0.00834174284874039</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01094324725704734</v>
+      </c>
+      <c r="H61">
+        <v>-0.002523759372094053</v>
+      </c>
+      <c r="I61">
+        <v>0.03848584961610844</v>
+      </c>
+      <c r="J61">
+        <v>-0.02565789552991703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04597964577199621</v>
+        <v>0.03098413968443478</v>
       </c>
       <c r="C63">
-        <v>-0.007392819182902391</v>
+        <v>-0.01759504913608645</v>
       </c>
       <c r="D63">
-        <v>-0.01917040631481621</v>
+        <v>0.004930557886798466</v>
       </c>
       <c r="E63">
-        <v>0.03599544647281264</v>
+        <v>-0.01370930473985366</v>
       </c>
       <c r="F63">
-        <v>0.009343243649957438</v>
+        <v>-0.03007252422610217</v>
       </c>
       <c r="G63">
-        <v>-0.03501252905868271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01119592610920853</v>
+      </c>
+      <c r="H63">
+        <v>0.04902522373743749</v>
+      </c>
+      <c r="I63">
+        <v>-0.0351528104207581</v>
+      </c>
+      <c r="J63">
+        <v>-0.03308292564485224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07897273754548882</v>
+        <v>0.05741698560040483</v>
       </c>
       <c r="C64">
-        <v>-0.05029245503691315</v>
+        <v>-0.03830597474625025</v>
       </c>
       <c r="D64">
-        <v>-0.0616889575152373</v>
+        <v>0.02945228371349747</v>
       </c>
       <c r="E64">
-        <v>0.05338257469960744</v>
+        <v>-0.04476073700917357</v>
       </c>
       <c r="F64">
-        <v>0.06264109903906515</v>
+        <v>-0.04980161921514423</v>
       </c>
       <c r="G64">
-        <v>0.01209176638448451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05308788353401181</v>
+      </c>
+      <c r="H64">
+        <v>-0.007649882027244193</v>
+      </c>
+      <c r="I64">
+        <v>-0.03434546947189385</v>
+      </c>
+      <c r="J64">
+        <v>-0.1048699922620173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01938614377126789</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.008143315440543794</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01015322114426592</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006325745900088941</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0002036532582001099</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02130525264391846</v>
+      </c>
+      <c r="H65">
+        <v>-0.004901937775314315</v>
+      </c>
+      <c r="I65">
+        <v>0.01489865711997906</v>
+      </c>
+      <c r="J65">
+        <v>-0.00280925886108304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09297510027433549</v>
+        <v>0.06918958868855948</v>
       </c>
       <c r="C66">
-        <v>-0.02887050241144369</v>
+        <v>-0.05370683653421028</v>
       </c>
       <c r="D66">
-        <v>-0.03731927537867167</v>
+        <v>0.006046118403235931</v>
       </c>
       <c r="E66">
-        <v>0.0745703052998849</v>
+        <v>-0.04692120347960696</v>
       </c>
       <c r="F66">
-        <v>0.0415545912406959</v>
+        <v>-0.06929646198950962</v>
       </c>
       <c r="G66">
-        <v>-0.01877673287587043</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01538567943122689</v>
+      </c>
+      <c r="H66">
+        <v>0.0003716435374193516</v>
+      </c>
+      <c r="I66">
+        <v>0.0338825128536762</v>
+      </c>
+      <c r="J66">
+        <v>-0.07611351984802699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0647863828166365</v>
+        <v>0.04792178004630505</v>
       </c>
       <c r="C67">
-        <v>0.01213633433116172</v>
+        <v>0.002138561917579773</v>
       </c>
       <c r="D67">
-        <v>-0.01379712277640585</v>
+        <v>-0.003269310911267707</v>
       </c>
       <c r="E67">
-        <v>0.02089188913729592</v>
+        <v>-0.01037605483393495</v>
       </c>
       <c r="F67">
-        <v>0.003752727260227984</v>
+        <v>-0.03796773247402457</v>
       </c>
       <c r="G67">
-        <v>0.03014737920213538</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03472522321097679</v>
+      </c>
+      <c r="H67">
+        <v>-0.007683074057482127</v>
+      </c>
+      <c r="I67">
+        <v>0.04007207498081326</v>
+      </c>
+      <c r="J67">
+        <v>-0.01156745465823499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01838941461994142</v>
+        <v>0.05052790132755293</v>
       </c>
       <c r="C68">
-        <v>0.2444635938061891</v>
+        <v>0.2102876577838773</v>
       </c>
       <c r="D68">
-        <v>0.0157712515970579</v>
+        <v>-0.1048031718700828</v>
       </c>
       <c r="E68">
-        <v>0.04576965056608492</v>
+        <v>0.02379410673885069</v>
       </c>
       <c r="F68">
-        <v>0.01475117257391776</v>
+        <v>-0.0557239064919392</v>
       </c>
       <c r="G68">
-        <v>-0.03042011263555603</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.003129628316580795</v>
+      </c>
+      <c r="H68">
+        <v>-0.01749065713311546</v>
+      </c>
+      <c r="I68">
+        <v>-0.1635902775878708</v>
+      </c>
+      <c r="J68">
+        <v>0.07055096239545863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07166754788722714</v>
+        <v>0.07216543822702856</v>
       </c>
       <c r="C69">
-        <v>-0.01615349567420541</v>
+        <v>-0.02165835562328765</v>
       </c>
       <c r="D69">
-        <v>-0.02632456176484619</v>
+        <v>0.0007065514131310254</v>
       </c>
       <c r="E69">
-        <v>-0.02312003205019743</v>
+        <v>-0.03185874419099782</v>
       </c>
       <c r="F69">
-        <v>-0.002540184989029685</v>
+        <v>0.001446196750948916</v>
       </c>
       <c r="G69">
-        <v>-0.03505583820756297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02635035600690988</v>
+      </c>
+      <c r="H69">
+        <v>0.02543577846180679</v>
+      </c>
+      <c r="I69">
+        <v>0.002596989771896636</v>
+      </c>
+      <c r="J69">
+        <v>-0.03052900089459165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01161278771452155</v>
+        <v>0.05229079972533795</v>
       </c>
       <c r="C71">
-        <v>0.2797027530161988</v>
+        <v>0.2249943366991062</v>
       </c>
       <c r="D71">
-        <v>0.02059787556149017</v>
+        <v>-0.11683998697719</v>
       </c>
       <c r="E71">
-        <v>0.07900599494365432</v>
+        <v>0.04506444276450327</v>
       </c>
       <c r="F71">
-        <v>0.02204780187227467</v>
+        <v>-0.07816822418608586</v>
       </c>
       <c r="G71">
-        <v>-0.04210460981982584</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01345211803369456</v>
+      </c>
+      <c r="H71">
+        <v>-0.02640079775244441</v>
+      </c>
+      <c r="I71">
+        <v>-0.1306081126416721</v>
+      </c>
+      <c r="J71">
+        <v>0.02831475956738623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1174109422484943</v>
+        <v>0.1242039707054986</v>
       </c>
       <c r="C72">
-        <v>0.004112084281104127</v>
+        <v>-0.02912227006974155</v>
       </c>
       <c r="D72">
-        <v>-0.04861180619360583</v>
+        <v>0.0005410010295777754</v>
       </c>
       <c r="E72">
-        <v>0.09411051366538953</v>
+        <v>-0.0622050022824939</v>
       </c>
       <c r="F72">
-        <v>-0.008748370543567686</v>
+        <v>-0.08314770236950425</v>
       </c>
       <c r="G72">
-        <v>0.01329292184555676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0393054791626844</v>
+      </c>
+      <c r="H72">
+        <v>-0.01736802038950919</v>
+      </c>
+      <c r="I72">
+        <v>0.06951541657432243</v>
+      </c>
+      <c r="J72">
+        <v>0.08980671690632892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2963415052601674</v>
+        <v>0.2683320316243905</v>
       </c>
       <c r="C73">
-        <v>0.1712157255733794</v>
+        <v>0.04302909684291972</v>
       </c>
       <c r="D73">
-        <v>0.04547253862688311</v>
+        <v>-0.1201496769560354</v>
       </c>
       <c r="E73">
-        <v>0.3268275084757216</v>
+        <v>0.03427220752147932</v>
       </c>
       <c r="F73">
-        <v>0.05045079335037912</v>
+        <v>-0.3133749285819495</v>
       </c>
       <c r="G73">
-        <v>0.01195405399510924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1695323996554045</v>
+      </c>
+      <c r="H73">
+        <v>-0.4690300811906449</v>
+      </c>
+      <c r="I73">
+        <v>0.2878847537350483</v>
+      </c>
+      <c r="J73">
+        <v>-0.03579608579377045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1616863379913019</v>
+        <v>0.1528494923215235</v>
       </c>
       <c r="C74">
-        <v>0.001420221785601771</v>
+        <v>-0.02651787705443023</v>
       </c>
       <c r="D74">
-        <v>-0.04315755180874635</v>
+        <v>-0.007149865113867412</v>
       </c>
       <c r="E74">
-        <v>-0.02689601988437843</v>
+        <v>-0.04827337548687176</v>
       </c>
       <c r="F74">
-        <v>-0.06565633010526201</v>
+        <v>0.05582332804206495</v>
       </c>
       <c r="G74">
-        <v>-0.06209262075197751</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01885130338464653</v>
+      </c>
+      <c r="H74">
+        <v>-0.03062494514164248</v>
+      </c>
+      <c r="I74">
+        <v>-0.0197101053796</v>
+      </c>
+      <c r="J74">
+        <v>-0.09033269572328045</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2292615731785662</v>
+        <v>0.2421459633436897</v>
       </c>
       <c r="C75">
-        <v>0.001212034065248093</v>
+        <v>-0.02858856277257889</v>
       </c>
       <c r="D75">
-        <v>-0.06684240577215668</v>
+        <v>-0.0237114256353142</v>
       </c>
       <c r="E75">
-        <v>-0.1187854864678635</v>
+        <v>-0.1049481204040357</v>
       </c>
       <c r="F75">
-        <v>-0.03433861983149419</v>
+        <v>0.1431518103458876</v>
       </c>
       <c r="G75">
-        <v>-0.04729736694778314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.003873991310211381</v>
+      </c>
+      <c r="H75">
+        <v>-0.01899315561249839</v>
+      </c>
+      <c r="I75">
+        <v>-0.08387704209067637</v>
+      </c>
+      <c r="J75">
+        <v>-0.01598203511275641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2414816552812797</v>
+        <v>0.269385531464817</v>
       </c>
       <c r="C76">
-        <v>0.01010934674629547</v>
+        <v>-0.01122670567799614</v>
       </c>
       <c r="D76">
-        <v>-0.1151302711222209</v>
+        <v>0.01125439839838031</v>
       </c>
       <c r="E76">
-        <v>-0.1277525651808</v>
+        <v>-0.1283100976260506</v>
       </c>
       <c r="F76">
-        <v>-0.08282099439799509</v>
+        <v>0.1861222936840521</v>
       </c>
       <c r="G76">
-        <v>-0.04159688170225609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05336253974634689</v>
+      </c>
+      <c r="H76">
+        <v>-0.04463526333565742</v>
+      </c>
+      <c r="I76">
+        <v>-0.04420798823350237</v>
+      </c>
+      <c r="J76">
+        <v>-0.07174443738487625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1383475310926356</v>
+        <v>0.1270909234574344</v>
       </c>
       <c r="C77">
-        <v>-0.04012508946617237</v>
+        <v>-0.06243580406137045</v>
       </c>
       <c r="D77">
-        <v>0.04154456303341294</v>
+        <v>0.01437479245849112</v>
       </c>
       <c r="E77">
-        <v>0.146811879102597</v>
+        <v>0.03285169315959571</v>
       </c>
       <c r="F77">
-        <v>0.04307153109699358</v>
+        <v>-0.1615928998687452</v>
       </c>
       <c r="G77">
-        <v>0.0650864081452999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.005473323469281364</v>
+      </c>
+      <c r="H77">
+        <v>0.2327381690617109</v>
+      </c>
+      <c r="I77">
+        <v>-0.2451493659904258</v>
+      </c>
+      <c r="J77">
+        <v>-0.09958958834010057</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08776061641743542</v>
+        <v>0.07914503823245325</v>
       </c>
       <c r="C78">
-        <v>-0.04858834147812854</v>
+        <v>-0.06893704486918736</v>
       </c>
       <c r="D78">
-        <v>0.01267221322857364</v>
+        <v>0.0331361775231087</v>
       </c>
       <c r="E78">
-        <v>0.04795551756028476</v>
+        <v>-0.00885761927066727</v>
       </c>
       <c r="F78">
-        <v>0.00906304319078631</v>
+        <v>-0.07249475723117688</v>
       </c>
       <c r="G78">
-        <v>-0.009683584629511814</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01091833549947569</v>
+      </c>
+      <c r="H78">
+        <v>0.02192096273250917</v>
+      </c>
+      <c r="I78">
+        <v>-0.03076946843213245</v>
+      </c>
+      <c r="J78">
+        <v>-0.04907690770412865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07656937646607664</v>
+        <v>0.1509213535183343</v>
       </c>
       <c r="C80">
-        <v>-0.0202656338647168</v>
+        <v>0.4087317128348786</v>
       </c>
       <c r="D80">
-        <v>0.0342182398206029</v>
+        <v>0.8835760709149738</v>
       </c>
       <c r="E80">
-        <v>-0.01205797157322668</v>
+        <v>0.0497553753090983</v>
       </c>
       <c r="F80">
-        <v>-0.1499729692001629</v>
+        <v>-0.04678974726516802</v>
       </c>
       <c r="G80">
-        <v>0.9257886345187371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04598719959455048</v>
+      </c>
+      <c r="H80">
+        <v>-0.05347769234944769</v>
+      </c>
+      <c r="I80">
+        <v>0.02971023251485665</v>
+      </c>
+      <c r="J80">
+        <v>0.09762304278793658</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1634222457081908</v>
+        <v>0.1800482434373968</v>
       </c>
       <c r="C81">
-        <v>0.009459277773493351</v>
+        <v>-0.009019684087444054</v>
       </c>
       <c r="D81">
-        <v>-0.06078863625340691</v>
+        <v>-0.007328087959404681</v>
       </c>
       <c r="E81">
-        <v>-0.158706830158591</v>
+        <v>-0.08638662913807044</v>
       </c>
       <c r="F81">
-        <v>-0.1053399225906733</v>
+        <v>0.1589450658468532</v>
       </c>
       <c r="G81">
-        <v>-0.04932796613969118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03219690871465257</v>
+      </c>
+      <c r="H81">
+        <v>-0.01279926792450539</v>
+      </c>
+      <c r="I81">
+        <v>-0.05607521199493631</v>
+      </c>
+      <c r="J81">
+        <v>-0.003197479754903425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09545629289470822</v>
+        <v>0.06874198429027376</v>
       </c>
       <c r="C83">
-        <v>-0.05460460632072832</v>
+        <v>-0.05255911051098987</v>
       </c>
       <c r="D83">
-        <v>0.06887803832593282</v>
+        <v>0.005464043341007761</v>
       </c>
       <c r="E83">
-        <v>0.004312230036659742</v>
+        <v>0.03631676218921608</v>
       </c>
       <c r="F83">
-        <v>0.05943474325953151</v>
+        <v>-0.04581550937098639</v>
       </c>
       <c r="G83">
-        <v>-0.03197655512730981</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05944893029464014</v>
+      </c>
+      <c r="H83">
+        <v>0.02284180186281258</v>
+      </c>
+      <c r="I83">
+        <v>-0.02107390427690209</v>
+      </c>
+      <c r="J83">
+        <v>-0.07845502175947096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2362831254301787</v>
+        <v>0.2525438136251476</v>
       </c>
       <c r="C85">
-        <v>-0.04875830382957726</v>
+        <v>-0.0484544868712807</v>
       </c>
       <c r="D85">
-        <v>-0.05796952140274121</v>
+        <v>0.007771523354184442</v>
       </c>
       <c r="E85">
-        <v>-0.1551296157001107</v>
+        <v>-0.09410869491488526</v>
       </c>
       <c r="F85">
-        <v>-0.06972202096969206</v>
+        <v>0.1871842536271732</v>
       </c>
       <c r="G85">
-        <v>-0.01192365874137578</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008349342499466708</v>
+      </c>
+      <c r="H85">
+        <v>0.02176985735195318</v>
+      </c>
+      <c r="I85">
+        <v>-0.04992443092407026</v>
+      </c>
+      <c r="J85">
+        <v>-0.0707982478616212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04601659718478425</v>
+        <v>0.02567258265208477</v>
       </c>
       <c r="C86">
-        <v>-0.05265703381470316</v>
+        <v>-0.06009979059509298</v>
       </c>
       <c r="D86">
-        <v>-0.01834965715234964</v>
+        <v>0.02568793905596371</v>
       </c>
       <c r="E86">
-        <v>0.06404449631361545</v>
+        <v>-0.01340424974493674</v>
       </c>
       <c r="F86">
-        <v>-0.004373719285964178</v>
+        <v>-0.06757711764144014</v>
       </c>
       <c r="G86">
-        <v>-0.02158406346958727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005511495484533109</v>
+      </c>
+      <c r="H86">
+        <v>0.06583009540420381</v>
+      </c>
+      <c r="I86">
+        <v>-0.02282117722764733</v>
+      </c>
+      <c r="J86">
+        <v>-0.04141627629866262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02743228951894777</v>
+        <v>0.03347190203711021</v>
       </c>
       <c r="C87">
-        <v>0.04938255167770159</v>
+        <v>0.009434809055505644</v>
       </c>
       <c r="D87">
-        <v>-0.003055924699578187</v>
+        <v>-0.007860406236588067</v>
       </c>
       <c r="E87">
-        <v>0.09331560037724804</v>
+        <v>-0.002124706104458615</v>
       </c>
       <c r="F87">
-        <v>-0.02116377727695805</v>
+        <v>-0.1013728677652549</v>
       </c>
       <c r="G87">
-        <v>-0.01960858700580321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02516091380870008</v>
+      </c>
+      <c r="H87">
+        <v>0.01554543619787434</v>
+      </c>
+      <c r="I87">
+        <v>0.01297518111031422</v>
+      </c>
+      <c r="J87">
+        <v>-0.01713038790065885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.04034587980564402</v>
+        <v>0.02936351903745785</v>
       </c>
       <c r="C88">
-        <v>-0.03949949458674529</v>
+        <v>-0.02010209426788416</v>
       </c>
       <c r="D88">
-        <v>-0.008646779790449494</v>
+        <v>0.02067118510530434</v>
       </c>
       <c r="E88">
-        <v>-0.01124569806382715</v>
+        <v>-0.0157053405970091</v>
       </c>
       <c r="F88">
-        <v>-0.01730530331707348</v>
+        <v>0.01449565024921023</v>
       </c>
       <c r="G88">
-        <v>-0.00554081123863223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03313473488275071</v>
+      </c>
+      <c r="H88">
+        <v>0.03696675463277061</v>
+      </c>
+      <c r="I88">
+        <v>0.02315170744542569</v>
+      </c>
+      <c r="J88">
+        <v>-0.02584237920828093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01126959420811866</v>
+        <v>0.07208869630585016</v>
       </c>
       <c r="C89">
-        <v>0.4140165641480996</v>
+        <v>0.346705797738567</v>
       </c>
       <c r="D89">
-        <v>0.09701247365450212</v>
+        <v>-0.18934572435121</v>
       </c>
       <c r="E89">
-        <v>0.0009205411641306333</v>
+        <v>0.0696584357842816</v>
       </c>
       <c r="F89">
-        <v>0.01830474708489972</v>
+        <v>-0.03553129545698103</v>
       </c>
       <c r="G89">
-        <v>-0.03926268598125227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03720208172167871</v>
+      </c>
+      <c r="H89">
+        <v>0.05187348435026961</v>
+      </c>
+      <c r="I89">
+        <v>-0.2622216852418277</v>
+      </c>
+      <c r="J89">
+        <v>0.06957295401475866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01150582412829411</v>
+        <v>0.05048422016700745</v>
       </c>
       <c r="C90">
-        <v>0.3100153919339914</v>
+        <v>0.2992300205366636</v>
       </c>
       <c r="D90">
-        <v>0.04595161778941392</v>
+        <v>-0.1448488807010349</v>
       </c>
       <c r="E90">
-        <v>0.04425746900715664</v>
+        <v>0.05340365439715637</v>
       </c>
       <c r="F90">
-        <v>0.03025928339601992</v>
+        <v>-0.03711794551663732</v>
       </c>
       <c r="G90">
-        <v>-0.05441563708634284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02010580989407415</v>
+      </c>
+      <c r="H90">
+        <v>0.01103297722882222</v>
+      </c>
+      <c r="I90">
+        <v>-0.2226284565430526</v>
+      </c>
+      <c r="J90">
+        <v>0.04491981921121128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2700533757575334</v>
+        <v>0.2936019236636074</v>
       </c>
       <c r="C91">
-        <v>-0.03084015819454973</v>
+        <v>-0.04456132406611549</v>
       </c>
       <c r="D91">
-        <v>-0.06784065278136828</v>
+        <v>-0.004319879184060713</v>
       </c>
       <c r="E91">
-        <v>-0.2731827489212195</v>
+        <v>-0.08713559383016332</v>
       </c>
       <c r="F91">
-        <v>-0.09808122437374812</v>
+        <v>0.2812928732876004</v>
       </c>
       <c r="G91">
-        <v>0.02617658838488294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0228134054018842</v>
+      </c>
+      <c r="H91">
+        <v>-0.01220258044545927</v>
+      </c>
+      <c r="I91">
+        <v>-0.1031715275458458</v>
+      </c>
+      <c r="J91">
+        <v>-0.04564766511294899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03168627571164925</v>
+        <v>0.1132676970780814</v>
       </c>
       <c r="C92">
-        <v>0.4083160048333603</v>
+        <v>0.3982747778702971</v>
       </c>
       <c r="D92">
-        <v>0.1467332457381943</v>
+        <v>-0.1677396853456448</v>
       </c>
       <c r="E92">
-        <v>-0.1194117829750151</v>
+        <v>0.0868445620920697</v>
       </c>
       <c r="F92">
-        <v>-0.09086321365468406</v>
+        <v>0.1253757499351647</v>
       </c>
       <c r="G92">
-        <v>0.163951721416664</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08056285873937606</v>
+      </c>
+      <c r="H92">
+        <v>0.4433816899158699</v>
+      </c>
+      <c r="I92">
+        <v>0.6775270776992032</v>
+      </c>
+      <c r="J92">
+        <v>-0.2938975092560293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.003046889044735785</v>
+        <v>0.0576254146895635</v>
       </c>
       <c r="C93">
-        <v>0.3756863567031931</v>
+        <v>0.3558851320910885</v>
       </c>
       <c r="D93">
-        <v>0.07502714305490539</v>
+        <v>-0.1875353152540819</v>
       </c>
       <c r="E93">
-        <v>-0.02532825895177766</v>
+        <v>0.08617352608634612</v>
       </c>
       <c r="F93">
-        <v>-0.003691600526063078</v>
+        <v>-0.004522950168771018</v>
       </c>
       <c r="G93">
-        <v>0.02659780591079729</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03334334768138462</v>
+      </c>
+      <c r="H93">
+        <v>-0.02110802102999329</v>
+      </c>
+      <c r="I93">
+        <v>-0.1612084644458003</v>
+      </c>
+      <c r="J93">
+        <v>0.06709902818033145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2672227117064055</v>
+        <v>0.3034521482898071</v>
       </c>
       <c r="C94">
-        <v>0.07033947235444885</v>
+        <v>-0.001098805965148693</v>
       </c>
       <c r="D94">
-        <v>-0.04571043256622409</v>
+        <v>-0.04687737926609099</v>
       </c>
       <c r="E94">
-        <v>-0.3380923183835629</v>
+        <v>-0.1273228648582244</v>
       </c>
       <c r="F94">
-        <v>-0.4376927563405483</v>
+        <v>0.3419446251025586</v>
       </c>
       <c r="G94">
-        <v>-0.120990968518274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.219407627236389</v>
+      </c>
+      <c r="H94">
+        <v>0.1186809442756548</v>
+      </c>
+      <c r="I94">
+        <v>-0.02818081399900093</v>
+      </c>
+      <c r="J94">
+        <v>0.1491120500043735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.194935642077352</v>
+        <v>0.1324909187440889</v>
       </c>
       <c r="C95">
-        <v>0.02812419703230004</v>
+        <v>-0.07194459477619845</v>
       </c>
       <c r="D95">
-        <v>-0.001221494173678301</v>
+        <v>-0.07604331702409767</v>
       </c>
       <c r="E95">
-        <v>-0.4353980361134692</v>
+        <v>-0.04030572733885728</v>
       </c>
       <c r="F95">
-        <v>0.8075683372891334</v>
+        <v>0.08417276377428153</v>
       </c>
       <c r="G95">
-        <v>0.1138352814711006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8966135732784882</v>
+      </c>
+      <c r="H95">
+        <v>-0.1606452851080898</v>
+      </c>
+      <c r="I95">
+        <v>0.09601767721588343</v>
+      </c>
+      <c r="J95">
+        <v>0.2573694427964418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2264192066753467</v>
+        <v>0.2067147834071508</v>
       </c>
       <c r="C98">
-        <v>0.1171565473415063</v>
+        <v>0.03310545090391659</v>
       </c>
       <c r="D98">
-        <v>0.03796859478468314</v>
+        <v>-0.08510153806222812</v>
       </c>
       <c r="E98">
-        <v>0.08388010671371768</v>
+        <v>0.03114958375307755</v>
       </c>
       <c r="F98">
-        <v>0.04578500144844651</v>
+        <v>-0.1628601705712739</v>
       </c>
       <c r="G98">
-        <v>-0.04810712985671074</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07720211970859907</v>
+      </c>
+      <c r="H98">
+        <v>-0.3194476986194493</v>
+      </c>
+      <c r="I98">
+        <v>0.1612554311944904</v>
+      </c>
+      <c r="J98">
+        <v>0.03408805028134108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02374653168319943</v>
+        <v>0.01601520835854454</v>
       </c>
       <c r="C101">
-        <v>-0.02332958978393124</v>
+        <v>-0.02737324617634829</v>
       </c>
       <c r="D101">
-        <v>-0.03241122031103093</v>
+        <v>0.017219883159471</v>
       </c>
       <c r="E101">
-        <v>0.02882470815317483</v>
+        <v>-0.03395415486171634</v>
       </c>
       <c r="F101">
-        <v>0.01576583094313516</v>
+        <v>-0.06496424642417535</v>
       </c>
       <c r="G101">
-        <v>-0.02502816142416558</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01529801569611525</v>
+      </c>
+      <c r="H101">
+        <v>0.1082934869346634</v>
+      </c>
+      <c r="I101">
+        <v>0.04916629513559703</v>
+      </c>
+      <c r="J101">
+        <v>0.1104889496334103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1193757652298405</v>
+        <v>0.1219325729271017</v>
       </c>
       <c r="C102">
-        <v>-0.01577029376862996</v>
+        <v>-0.01944083175497982</v>
       </c>
       <c r="D102">
-        <v>-0.03978200173328476</v>
+        <v>0.008533867010296325</v>
       </c>
       <c r="E102">
-        <v>-0.08816597187047531</v>
+        <v>-0.05535274656321336</v>
       </c>
       <c r="F102">
-        <v>-0.01169602781915515</v>
+        <v>0.09983553742632803</v>
       </c>
       <c r="G102">
-        <v>0.004103988908856973</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01520184411271515</v>
+      </c>
+      <c r="H102">
+        <v>-0.01920102831439275</v>
+      </c>
+      <c r="I102">
+        <v>-0.05410790057323032</v>
+      </c>
+      <c r="J102">
+        <v>-0.04295999174727028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01644931918681658</v>
+        <v>0.03115067720498117</v>
       </c>
       <c r="C103">
-        <v>0.0002969937616321014</v>
+        <v>-0.002269787244141168</v>
       </c>
       <c r="D103">
-        <v>-0.0125218908117794</v>
+        <v>0.009038425289554949</v>
       </c>
       <c r="E103">
-        <v>-0.02949390165845725</v>
+        <v>-0.02061868362488728</v>
       </c>
       <c r="F103">
-        <v>-0.01307605021943685</v>
+        <v>0.02820329479323945</v>
       </c>
       <c r="G103">
-        <v>-0.01279785442729335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01266283452288227</v>
+      </c>
+      <c r="H103">
+        <v>0.01546338404111381</v>
+      </c>
+      <c r="I103">
+        <v>-0.02950624585512986</v>
+      </c>
+      <c r="J103">
+        <v>-0.006263924682025902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
